--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,7 +404,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -434,7 +434,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>màn hình hiển thị kém</t>
+          <t>màn hình hiển thị kém, không đáng tiền </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -568,6 +568,381 @@
         </is>
       </c>
       <c r="C14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Giá quá cao mà sử dụng thì không có gì nổi bật cả, những ai hay chơi game thì ko nên mua bởi vì pin quá kém.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Máy mua được hơn 1 tháng tại thegioididong hiện tại không nhận được cuộc gọi. Không khởi động lại máy được.không thao tác cuộc gọi được.ngoài ra dùng bình thường mai mang xuống thegioididong xem sao về trường hợp này.thấy không tin app nữa rồi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ip X ko có phím home tròn. Làm mất phong cách ip quen thuộc. Của các đời trước. Nhớ ko nhầm thì từ bản 3GS thì phải.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mua từ lúc mới ra thường thì rất lâu mới giảm giá. Dể bị trày 4 cạnh viền face id ok. Vẻ sang chảnh. Ngoài ra tính năng khác không nổi trội nhiều so với đời trước.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Máy thì ngon, mình dùng từ 5s đến 8 mỗi tội chẳng biết nó hỏng lúc nào, mỗi lần cập nhật là nơm nớp. Đợt vừa r lên ios 12 xong thành cục gạch con 5s với 6. Chả biết bao giờ tới con này.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mình mới mua iPhone X phiên bản 256 gb được nửa năm, thấy cũng được, mọi thứ đều ổn, máy chơi game mượt, nhưng có điều camera chụp ko đc tốt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Đặt hàng từ lúc mới ra , thấy chất lượng ok , xài mượt , màn hình tràn viền cầm nhìn sang trọng , nhược điểm thỳ cạnh viền thép dể bị sước dăm khi xài ốp, nhìu ứng dụng vẫn chưa full màn hình cho em nó.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cấu hình rất mượt. Nhưng pin rất kém thử download liên quân mobile về vào chưa được 5p ngốn 4-5% pin</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>em mua ngày 9/2 về dùng hơn tuần. đang dùng pin 100% tự nhiên đen màn hình bật không lên bị lỗi. mang ra TGDD bảo hành thì họ bảo 15 ngày mới có thể đổi máy vì gửi lên hãng @@ iphoneX giờ lỗi quá. e tín đồ apple lâu rồi 1 thời gian chuyển sang galaxy s8+ thấy dùng đã giờ qua X chán quá thật sự luôn ạ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Thiết kế rất đẹp, màn hình rộng và cân đối Rất mượt mà, chụp hình chế độ Chân dung cực kỳ đẹp, pin đủ dùng trong ngày tới tối muộn mới cần sạc lại. Rất thích sản phẩm khi dùng dưới mưa, Face ID tự mở cho dù trời mưa lớn.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mua hơn 1 năm nay, chơi game nặng thì máy hơi nóng( thua 8plus khoản game) còn lại mọi thứ hoàn hảo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mình mua máy dc 1 tuần, hiệu năng, hình ảnh mọi thứ đều ok, chỉ có điều mặt sau và cạnh viền k khớp nhau, có khe hở (từ lúc mua tới giờ chưa chịu bất cứ va chạm nào) bụi vào nhiều lắm. Bên TGDD giải quyết vấn đề này giúp mình với nhé. Thân!</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Máy tốt về mọi mặt nhưng các bạn thường chơi game hơi nặng xíu k nên mua máy này vì chơi game khoảng 20p máy sẽ rất rất nóng</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sản phẩm thiết kế đẹp tinh tế, cấu hình mạnh và rất nhiều ứng dụng rất hữu ích, Pin sử dụng tốt, nhìn chung sản phẩm rất tuyệt vời</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Iphone X đúng 1 sản phẩm nổi bật và đột phá từ trước đến nay, màn hình rất đẹp và viền rất mỏng là ấn tượng mà tôi thích nhất, Camera cũng thuộc dạng tốt nhất trên thị trường hiện nay.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Máy chạy OK rất mượt,cảm thấy hài lòng nhé.rất đáng đồng tiền,tuy nhiên NV tư vấn còn chưa chính xác</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Máy rất đẹp, nhỏ gọn, chạy mượt. Mọi thứ đều ổn chỉ là cam hơi chán chất lượng chỉ ở mức trung bình. Vẫn phải dùng cái Sony z5 P để đáp ứng nhu cầu chụp ảnh.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sản phẩm dùng rất ổn định, pin khá ổn, chụp ảnh đẹp và chân thực. Đã mua rất nhiều sản phẩm bên dmx đc nhân viên tiếp đón rất chu đáo nhiệt tình. Rất hài lòng</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mới rinh về trải nghiệm. Thời lượng pin được chứ chưa được ấn tượng lắm “ do nhu cầu pin mình cao”. Nói chung tuyệt vời mặc dù giá hơi chát tí</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mọi thứ ổn định Hơi thất vọng về pin quá . Mình dùng chỉ được 5h là fai sạc quá thất vọng . Không biết do hệ điều hành hay sao nữa . Hiện tại mình đang ở bản 11.3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Đang dùng iPhone x 256gb thấy rất sướng, rất là mượt, không xảy ra tình trạng giựt lag, quá hoàn hảo,nhiều tính nắng tuyệt vời, chỉ 1 điều chưa hài lòng là mau hết pin quá do faceid quét liên tục, nên dùng chỉ được </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Máy dùng phải gọi là quá mượt, cầm vừa tay nhưng lại rất dễ rơi do máy quá trơn, face id thì ko được tốt lắm nhưng ko có chuyện đeo khẩu trang mà vẫn mở khóa đc cá nhân mình thì thich touch id hơn. Muốn xem % thì hơi bất tiện do phải kéo thanh công cụ thì mới xem đc. Màn hình đẹp hơn ss nhưng cực ghét cái tai thỏ do ko phải ứng dụng nào cx đc full màn hình. Nv tgdd nhiệt tình, vui vẻ, chu đáo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>thiết kế gọn nhẹ, cầm vừa tay màn hình trải nghiệm tốt full màn hình máy nhỏ nhưng cảm giác vẫn thấy coi thích Pin hơi ít do tính chất công việc sạc hơi nhiều</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Máy tụt pin nhanh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Máy thiết kế ổn, cầm chắc tay, nhỏ gọn đẹp</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Positive</t>
         </is>

--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,7 +419,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -945,6 +945,208 @@
       <c r="C39" t="inlineStr">
         <is>
           <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sản phẩm chất lượng ok. Nhưng thời gian giao hàng quá lâu, khi đến hạn giao hàng vẫn không thấy, gọi lên hotline thì được trả lời hàng vẫn nằm kho HCM và chờ chuyển ra trong khi order gần 1 tuần rồi. Không chốt thời gian cụ thể giao hàng mà hẹn trong khoảng 2-3 ngày tới. Cực kì bực mình vì cách giao hàng vì cứ phải ngồi 1 chỗ chờ đt để nhận hàng trong mấy ngày liên tục.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nhận sản phẩm sau 2h là trưa thứ 6, máy nguyên seal chưa active nhưng lỗi không lên nguồn cắm sạc chỉ nháy logo apple rồi tắt phụt, thử mọi cách hard reset cắm vào macbook không lên, góc trái màn hình bị kênh và hở lên 0.5 mm so với viền.
+Vì cần gấp để tặng người thân đi ra sân bay nên gọi ngay cho Tiki, nhận được câu trả lời là sẽ liên lạc sớm nhất có thể, mất kiên nhẫn nên gọi lại làm căng thì mới nói là không thể đổi trả luôn mà phải đợi qua ngày. Trong khi thứ 7 chủ nhật không làm việc và không qua, nói đầu tuần sau mới có người qua lấy máy. Rồi phải đợi kiểm tra máy vậy thì đến bao giờ mới nhận được máy đổi???
+Tại sao giao hàng 2h được mà hậu mãi không làm gấp được mà phải cả tuần hay bán được là xong trách nhiệm?
+Giải quyết: phải tự đem thẳng máy lên kho tiki ở Lĩnh Nam trả nhân viên, yêu cầu hoàn tiền. Mong sẽ được hoàn tiền sớm.
+Lần này khá thất vọng khi mua hàng, trước đó mua 1 tai nghe iphone 500.000 cam kết chính hãng mà mic rè tậm tịt, vẫn đang chờ đổi trả.
+Mọi người nên cân nhắc xác suất nhận máy hỏng là có và khi đó sẽ vừa mất thời gian công sức và rước bực vào người. Biết vậy ra cửa hàng bán lẻ để test máy, đúng là rẻ hơn đc vài trăm mà khổ.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tôi nhận được máy - cũng hài lòng khi mới nhận. 
+nhưng khi check kỹ thì thấy máy này đã bị reset 1 lần vào thời gian cả gần nữa năm trước khi tôi nhận máy. 
+Cảm thấy không còn chút tin tưởng.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Em mua máy về và có tải facebook với messenger nhưng cứ 1 ngày lại bị lỗi và khoá tài khoản, như vậy có phải ios bị lỗi không ạ? Mọi ng chỉ e với</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Máy vừa được giao cho tôi lúc sáng nay, nhưng đến tối thì vô cớ sập nguồn 2 lần, lần 1 kích nguồn thì máy hoạt động lại, lần 2 thì làm thế nào máy vẫn tối om om, rất là bực mình! Tôi nên tới đâu để bảo hành máy vậy tiki?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sản phẩm nguyên hộp, nguyên seal, chưa kích hoạt,</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mình dùng máy được 1 tuần chưa thấy xảy ra lỗi lầm gì</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tốt , sản phẩm đạt, đúng như quảng cáo, nhân viên giao hàng nhiệt tình</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Muốn mua thêm cái nữa để dùng</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lúc đầu mua thì xài không thấy nóng. Được 1 tháng thì mới lướt fb xfim 1 tiếng đã rất là nóng ?? Không biết phải hàng dựng không nữa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ngày đầu mùa về, sau khi sài còn 10% pin thì đi sạc Sau khi sạc đầy, mình dùng 3 tiếng, trong đó YouTube 1 tiếng, vọc FB 1tieng rưỡi, pin xuống còn 70% , cảm thấy tụt quá nhanh cho pin còn mới</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Máy đẹp, cấu hình mạnh, chạy trơn tru tất cả các ứng dụng, game, màn hình đẹp, hệ điều hành giao diện đẹp, nhiều chức năng hữu ích, chụp ảnh ổn, thời gian sử dụng pin ok, mở khóa bằng vân tay cực nhạy. Với tầm giá này thì chiếc này quá ngon, không có điểm gì phải phàn nàn cả !</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pin xuống nhanh quá , sac đầy 100% lúc 22 giờ , 6 giờ sáng dậy còn 90% pin . Chủ đề mặc định ko đẹp cho lắm .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>

--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -419,7 +419,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>

--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1150,6 +1150,126 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cũng được tạm tạm</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>không có gì để phàn nàn</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>không đáng tiền bỏ ra</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tiếc khi mua máy này</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>không bao giờ quay lại</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>không biết có đúng như quảng cáo không</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>mới mua, cũng tạm ổn cho đến bây giờ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>khuyên là không nên mua</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,126 +1150,6 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>cũng được tạm tạm</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>không có gì để phàn nàn</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>không đáng tiền bỏ ra</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>tiếc khi mua máy này</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>không bao giờ quay lại</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>không biết có đúng như quảng cáo không</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>mới mua, cũng tạm ổn cho đến bây giờ</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>khuyên là không nên mua</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +384,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
+          <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -399,12 +399,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
+          <t>Xài tốt đc ok 1 thời gian nhưng sao trong máy nó bị gì cứ kêu cạch cạch chả hiểu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -414,7 +414,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
+          <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -429,12 +429,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
+          <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>màn hình cảm ứng vân tay,khi có nưỡc thì tác dụng không nhạy.s10 sam sung độc quyền miếng dán mặt trước .thay miếng dán khác là mất mở khoá vân tay.mua của sam sung thì giá gấp 20 lần bểnngoài.</t>
+          <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -459,12 +459,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
+          <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
+          <t>Máy đẹp, nhanh , ngon, chỉ tiếc là Pin tụt hơi nhanh. Còn lại mọi cái đều tuyệt vời.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -489,12 +489,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quảng cáo rầm rộ. Trải nghiệm thực sự thua xa máy tầm trung của xiaomi. Pin thì tụt nhanh. Đèn thông báo thì không có. Vân tay thì tệ ơi là tệ, bấm cả chục cái mới mở được màn hình. Thật sự thất vọng</t>
+          <t>Đã mua và sử dụng từ đời s8.rất đẹp và ok.màu xanh khá đẹp.s10 nhỏ vừa tay hơn s10+.mình đã chọn s10.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
+          <t>Dùng màn hình đẹp, pin hơi yếu so với dòng A, wifile bắt khoảng cách xa yếu hơn dòng lumia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -519,12 +519,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
+          <t>Nhận máy s10 từ hôm qua tại cửa hàng ở số 3 Quang Trung, Nha Trang. Điện thoại dùng quá ngon, màu xanh của máy đẹp, màn hình sáng, pin khá ổn, chụp hình ấn tượng. Chỉ có cái cảm ứng siêu âm khi ko có dán màn hình thì quá ngon, hy vọng sớm ra dán màn hình tích hợp. Nhân viên TGDĐ nhiệt tình, cảm ơn đã giao máy đúng hẹn.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Máy đẹp quá</t>
+          <t>Cảm giác máy còn hơi nóng. Update mới vân tay rất nhạy. Camera chụp rất tuyệt vời, chụp được nhiều góc độ.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>màn hình hiển thị kém, không đáng tiền </t>
+          <t>Vừa lấy máy hôm qua. Máy mượt. - Chơi PUBG và Liên Quân bao đã. - Chụp ảnh điều kiện tối hay sáng gì cũng đẹp, đặc biệt chống rung quá xuất sắc. - PIN trung bình khá, không khá hơn S9 bao nhiêu. Nhưng tốc độ lại sạc nhanh hơn đáng kể. - SAMSUNG dán sẵn màn hình và tặng ốp lưng luôn nên cảm thấy rất được. - Vân tay vẫn chưa thật sự nhạy so với đời trước, nhưng so với FaceID của Apple thì tương đương thời gian mở khóa.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -564,12 +564,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>máy dùng tạm được, không có gì để chê</t>
+          <t>sau khi sử dụng có 2 thứ vẫn không ổn 1. không hiện thị phần trăm pin 2. wifi quá yếu đang cập nhật phiên bản mới lên không biết thế nào</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Giá quá cao mà sử dụng thì không có gì nổi bật cả, những ai hay chơi game thì ko nên mua bởi vì pin quá kém.</t>
+          <t>Cap nhat phien ban moi,sac pin may bi nong may, tuong cap nhat phien ban moi se tot hon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Máy mua được hơn 1 tháng tại thegioididong hiện tại không nhận được cuộc gọi. Không khởi động lại máy được.không thao tác cuộc gọi được.ngoài ra dùng bình thường mai mang xuống thegioididong xem sao về trường hợp này.thấy không tin app nữa rồi</t>
+          <t>Sao k sản xuất màn hình nhỏ gọn, vi xử lí tốt camera tốt nét, màn hình full hd là đc r đỡ hao pin, sạc nhanh, bảo mật vân tay hoàn hảo.... chỉ cần vài cái cốt lõi trên cùng giá hợp lí sẽ nhiều người mua hơn</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ip X ko có phím home tròn. Làm mất phong cách ip quen thuộc. Của các đời trước. Nhớ ko nhầm thì từ bản 3GS thì phải.</t>
+          <t>máy mua gần 21 tr mà thấy có lỗi như vân tay ko nhạy , pin tụt nhanh và 1 số lỗi lặt vặt nữa toàn là những lỗi ko đáng có ở tầm giá này. Dạo này thấy samsung làm đt hơi kém chất lượng (mình chỉ góp ý thoi chớ hk có í chê samsung mong samsung sẽ ko mắc những lỗi như vậy nữa trong những sản phẩm tới ai fan sammsung thì cx đừng giận "mìn chỉ góp ý thoi")</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mua từ lúc mới ra thường thì rất lâu mới giảm giá. Dể bị trày 4 cạnh viền face id ok. Vẻ sang chảnh. Ngoài ra tính năng khác không nổi trội nhiều so với đời trước.</t>
+          <t>Dùng hàng cao cấp của samsung sau vài tháng có cảm giác như dùng hàng rẻ tiền vậy. Đang mất dần niềm tin với sam</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Máy thì ngon, mình dùng từ 5s đến 8 mỗi tội chẳng biết nó hỏng lúc nào, mỗi lần cập nhật là nơm nớp. Đợt vừa r lên ios 12 xong thành cục gạch con 5s với 6. Chả biết bao giờ tới con này.</t>
+          <t>Quảng cáo rầm rộ. Trải nghiệm thực sự thua xa máy tầm trung của xiaomi. Pin thì tụt nhanh. Đèn thông báo thì không có. Vân tay thì tệ ơi là tệ, bấm cả chục cái mới mở được màn hình. Thật sự thất vọng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mình mới mua iPhone X phiên bản 256 gb được nửa năm, thấy cũng được, mọi thứ đều ổn, máy chơi game mượt, nhưng có điều camera chụp ko đc tốt</t>
+          <t>Tất cả đều ok, trừ khoản pin kém qá, 1 ngày toàn sạc 2l, mặc dù để độ phân giải là FHD mong đc cập nhật cải thiện pin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Đặt hàng từ lúc mới ra , thấy chất lượng ok , xài mượt , màn hình tràn viền cầm nhìn sang trọng , nhược điểm thỳ cạnh viền thép dể bị sước dăm khi xài ốp, nhìu ứng dụng vẫn chưa full màn hình cho em nó.</t>
+          <t>Sp quá tuyệt. Mà xin vui long bên dịch vụ của cửa hàng hãy để thêm thông tin về dịch vụ trả góp qa thẻ tín dụg, để k.h có thể dễ dàng tham khảo các gói dịvh vụ tiện ích bên cửa hàng. (Đây là ý kiến riêng của mình)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -684,467 +684,10 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cấu hình rất mượt. Nhưng pin rất kém thử download liên quân mobile về vào chưa được 5p ngốn 4-5% pin</t>
+          <t>màn hình cảm ứng vân tay,khi có nưỡc thì tác dụng không nhạy.s10 sam sung độc quyền miếng dán mặt trước .thay miếng dán khác là mất mở khoá vân tay.mua của sam sung thì giá gấp 20 lần bểnngoài.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>em mua ngày 9/2 về dùng hơn tuần. đang dùng pin 100% tự nhiên đen màn hình bật không lên bị lỗi. mang ra TGDD bảo hành thì họ bảo 15 ngày mới có thể đổi máy vì gửi lên hãng @@ iphoneX giờ lỗi quá. e tín đồ apple lâu rồi 1 thời gian chuyển sang galaxy s8+ thấy dùng đã giờ qua X chán quá thật sự luôn ạ</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Thiết kế rất đẹp, màn hình rộng và cân đối Rất mượt mà, chụp hình chế độ Chân dung cực kỳ đẹp, pin đủ dùng trong ngày tới tối muộn mới cần sạc lại. Rất thích sản phẩm khi dùng dưới mưa, Face ID tự mở cho dù trời mưa lớn.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mua hơn 1 năm nay, chơi game nặng thì máy hơi nóng( thua 8plus khoản game) còn lại mọi thứ hoàn hảo</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mình mua máy dc 1 tuần, hiệu năng, hình ảnh mọi thứ đều ok, chỉ có điều mặt sau và cạnh viền k khớp nhau, có khe hở (từ lúc mua tới giờ chưa chịu bất cứ va chạm nào) bụi vào nhiều lắm. Bên TGDD giải quyết vấn đề này giúp mình với nhé. Thân!</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Máy tốt về mọi mặt nhưng các bạn thường chơi game hơi nặng xíu k nên mua máy này vì chơi game khoảng 20p máy sẽ rất rất nóng</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>sản phẩm thiết kế đẹp tinh tế, cấu hình mạnh và rất nhiều ứng dụng rất hữu ích, Pin sử dụng tốt, nhìn chung sản phẩm rất tuyệt vời</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Iphone X đúng 1 sản phẩm nổi bật và đột phá từ trước đến nay, màn hình rất đẹp và viền rất mỏng là ấn tượng mà tôi thích nhất, Camera cũng thuộc dạng tốt nhất trên thị trường hiện nay.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Máy chạy OK rất mượt,cảm thấy hài lòng nhé.rất đáng đồng tiền,tuy nhiên NV tư vấn còn chưa chính xác</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Máy rất đẹp, nhỏ gọn, chạy mượt. Mọi thứ đều ổn chỉ là cam hơi chán chất lượng chỉ ở mức trung bình. Vẫn phải dùng cái Sony z5 P để đáp ứng nhu cầu chụp ảnh.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sản phẩm dùng rất ổn định, pin khá ổn, chụp ảnh đẹp và chân thực. Đã mua rất nhiều sản phẩm bên dmx đc nhân viên tiếp đón rất chu đáo nhiệt tình. Rất hài lòng</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Mới rinh về trải nghiệm. Thời lượng pin được chứ chưa được ấn tượng lắm “ do nhu cầu pin mình cao”. Nói chung tuyệt vời mặc dù giá hơi chát tí</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mọi thứ ổn định Hơi thất vọng về pin quá . Mình dùng chỉ được 5h là fai sạc quá thất vọng . Không biết do hệ điều hành hay sao nữa . Hiện tại mình đang ở bản 11.3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Đang dùng iPhone x 256gb thấy rất sướng, rất là mượt, không xảy ra tình trạng giựt lag, quá hoàn hảo,nhiều tính nắng tuyệt vời, chỉ 1 điều chưa hài lòng là mau hết pin quá do faceid quét liên tục, nên dùng chỉ được </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Máy dùng phải gọi là quá mượt, cầm vừa tay nhưng lại rất dễ rơi do máy quá trơn, face id thì ko được tốt lắm nhưng ko có chuyện đeo khẩu trang mà vẫn mở khóa đc cá nhân mình thì thich touch id hơn. Muốn xem % thì hơi bất tiện do phải kéo thanh công cụ thì mới xem đc. Màn hình đẹp hơn ss nhưng cực ghét cái tai thỏ do ko phải ứng dụng nào cx đc full màn hình. Nv tgdd nhiệt tình, vui vẻ, chu đáo</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>thiết kế gọn nhẹ, cầm vừa tay màn hình trải nghiệm tốt full màn hình máy nhỏ nhưng cảm giác vẫn thấy coi thích Pin hơi ít do tính chất công việc sạc hơi nhiều</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Máy tụt pin nhanh</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Máy thiết kế ổn, cầm chắc tay, nhỏ gọn đẹp</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Sản phẩm chất lượng ok. Nhưng thời gian giao hàng quá lâu, khi đến hạn giao hàng vẫn không thấy, gọi lên hotline thì được trả lời hàng vẫn nằm kho HCM và chờ chuyển ra trong khi order gần 1 tuần rồi. Không chốt thời gian cụ thể giao hàng mà hẹn trong khoảng 2-3 ngày tới. Cực kì bực mình vì cách giao hàng vì cứ phải ngồi 1 chỗ chờ đt để nhận hàng trong mấy ngày liên tục.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Nhận sản phẩm sau 2h là trưa thứ 6, máy nguyên seal chưa active nhưng lỗi không lên nguồn cắm sạc chỉ nháy logo apple rồi tắt phụt, thử mọi cách hard reset cắm vào macbook không lên, góc trái màn hình bị kênh và hở lên 0.5 mm so với viền.
-Vì cần gấp để tặng người thân đi ra sân bay nên gọi ngay cho Tiki, nhận được câu trả lời là sẽ liên lạc sớm nhất có thể, mất kiên nhẫn nên gọi lại làm căng thì mới nói là không thể đổi trả luôn mà phải đợi qua ngày. Trong khi thứ 7 chủ nhật không làm việc và không qua, nói đầu tuần sau mới có người qua lấy máy. Rồi phải đợi kiểm tra máy vậy thì đến bao giờ mới nhận được máy đổi???
-Tại sao giao hàng 2h được mà hậu mãi không làm gấp được mà phải cả tuần hay bán được là xong trách nhiệm?
-Giải quyết: phải tự đem thẳng máy lên kho tiki ở Lĩnh Nam trả nhân viên, yêu cầu hoàn tiền. Mong sẽ được hoàn tiền sớm.
-Lần này khá thất vọng khi mua hàng, trước đó mua 1 tai nghe iphone 500.000 cam kết chính hãng mà mic rè tậm tịt, vẫn đang chờ đổi trả.
-Mọi người nên cân nhắc xác suất nhận máy hỏng là có và khi đó sẽ vừa mất thời gian công sức và rước bực vào người. Biết vậy ra cửa hàng bán lẻ để test máy, đúng là rẻ hơn đc vài trăm mà khổ.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Tôi nhận được máy - cũng hài lòng khi mới nhận. 
-nhưng khi check kỹ thì thấy máy này đã bị reset 1 lần vào thời gian cả gần nữa năm trước khi tôi nhận máy. 
-Cảm thấy không còn chút tin tưởng.</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Em mua máy về và có tải facebook với messenger nhưng cứ 1 ngày lại bị lỗi và khoá tài khoản, như vậy có phải ios bị lỗi không ạ? Mọi ng chỉ e với</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Máy vừa được giao cho tôi lúc sáng nay, nhưng đến tối thì vô cớ sập nguồn 2 lần, lần 1 kích nguồn thì máy hoạt động lại, lần 2 thì làm thế nào máy vẫn tối om om, rất là bực mình! Tôi nên tới đâu để bảo hành máy vậy tiki?</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>sản phẩm nguyên hộp, nguyên seal, chưa kích hoạt,</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>mình dùng máy được 1 tuần chưa thấy xảy ra lỗi lầm gì</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>tốt , sản phẩm đạt, đúng như quảng cáo, nhân viên giao hàng nhiệt tình</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Muốn mua thêm cái nữa để dùng</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Lúc đầu mua thì xài không thấy nóng. Được 1 tháng thì mới lướt fb xfim 1 tiếng đã rất là nóng ?? Không biết phải hàng dựng không nữa</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Ngày đầu mùa về, sau khi sài còn 10% pin thì đi sạc Sau khi sạc đầy, mình dùng 3 tiếng, trong đó YouTube 1 tiếng, vọc FB 1tieng rưỡi, pin xuống còn 70% , cảm thấy tụt quá nhanh cho pin còn mới</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Máy đẹp, cấu hình mạnh, chạy trơn tru tất cả các ứng dụng, game, màn hình đẹp, hệ điều hành giao diện đẹp, nhiều chức năng hữu ích, chụp ảnh ổn, thời gian sử dụng pin ok, mở khóa bằng vân tay cực nhạy. Với tầm giá này thì chiếc này quá ngon, không có điểm gì phải phàn nàn cả !</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Pin xuống nhanh quá , sac đầy 100% lúc 22 giờ , 6 giờ sáng dậy còn 90% pin . Chủ đề mặc định ko đẹp cho lắm .</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>Negative</t>
         </is>

--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -1,37 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/DA2019/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455EDA48-8F9E-1441-B843-36EF361CD6A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>E mới mua con s10 được gần 2 tuần mà sao xài nhanh nóng quá ạ Hay do cài đặt e chỉnh sai gì ạ</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
+  </si>
+  <si>
+    <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
+  </si>
+  <si>
+    <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
+  </si>
+  <si>
+    <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
+  </si>
+  <si>
+    <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Máy đẹp, nhanh , ngon, chỉ tiếc là Pin tụt hơi nhanh. Còn lại mọi cái đều tuyệt vời.</t>
+  </si>
+  <si>
+    <t>Đã mua và sử dụng từ đời s8.rất đẹp và ok.màu xanh khá đẹp.s10 nhỏ vừa tay hơn s10+.mình đã chọn s10.</t>
+  </si>
+  <si>
+    <t>Dùng màn hình đẹp, pin hơi yếu so với dòng A, wifile bắt khoảng cách xa yếu hơn dòng lumia</t>
+  </si>
+  <si>
+    <t>Nhận máy s10 từ hôm qua tại cửa hàng ở số 3 Quang Trung, Nha Trang. Điện thoại dùng quá ngon, màu xanh của máy đẹp, màn hình sáng, pin khá ổn, chụp hình ấn tượng. Chỉ có cái cảm ứng siêu âm khi ko có dán màn hình thì quá ngon, hy vọng sớm ra dán màn hình tích hợp. Nhân viên TGDĐ nhiệt tình, cảm ơn đã giao máy đúng hẹn.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +100,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,347 +428,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Xài tốt đc ok 1 thời gian nhưng sao trong máy nó bị gì cứ kêu cạch cạch chả hiểu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Máy đẹp, nhanh , ngon, chỉ tiếc là Pin tụt hơi nhanh. Còn lại mọi cái đều tuyệt vời.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Đã mua và sử dụng từ đời s8.rất đẹp và ok.màu xanh khá đẹp.s10 nhỏ vừa tay hơn s10+.mình đã chọn s10.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Dùng màn hình đẹp, pin hơi yếu so với dòng A, wifile bắt khoảng cách xa yếu hơn dòng lumia</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Nhận máy s10 từ hôm qua tại cửa hàng ở số 3 Quang Trung, Nha Trang. Điện thoại dùng quá ngon, màu xanh của máy đẹp, màn hình sáng, pin khá ổn, chụp hình ấn tượng. Chỉ có cái cảm ứng siêu âm khi ko có dán màn hình thì quá ngon, hy vọng sớm ra dán màn hình tích hợp. Nhân viên TGDĐ nhiệt tình, cảm ơn đã giao máy đúng hẹn.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Cảm giác máy còn hơi nóng. Update mới vân tay rất nhạy. Camera chụp rất tuyệt vời, chụp được nhiều góc độ.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Vừa lấy máy hôm qua. Máy mượt. - Chơi PUBG và Liên Quân bao đã. - Chụp ảnh điều kiện tối hay sáng gì cũng đẹp, đặc biệt chống rung quá xuất sắc. - PIN trung bình khá, không khá hơn S9 bao nhiêu. Nhưng tốc độ lại sạc nhanh hơn đáng kể. - SAMSUNG dán sẵn màn hình và tặng ốp lưng luôn nên cảm thấy rất được. - Vân tay vẫn chưa thật sự nhạy so với đời trước, nhưng so với FaceID của Apple thì tương đương thời gian mở khóa.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sau khi sử dụng có 2 thứ vẫn không ổn 1. không hiện thị phần trăm pin 2. wifi quá yếu đang cập nhật phiên bản mới lên không biết thế nào</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cap nhat phien ban moi,sac pin may bi nong may, tuong cap nhat phien ban moi se tot hon</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sao k sản xuất màn hình nhỏ gọn, vi xử lí tốt camera tốt nét, màn hình full hd là đc r đỡ hao pin, sạc nhanh, bảo mật vân tay hoàn hảo.... chỉ cần vài cái cốt lõi trên cùng giá hợp lí sẽ nhiều người mua hơn</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>máy mua gần 21 tr mà thấy có lỗi như vân tay ko nhạy , pin tụt nhanh và 1 số lỗi lặt vặt nữa toàn là những lỗi ko đáng có ở tầm giá này. Dạo này thấy samsung làm đt hơi kém chất lượng (mình chỉ góp ý thoi chớ hk có í chê samsung mong samsung sẽ ko mắc những lỗi như vậy nữa trong những sản phẩm tới ai fan sammsung thì cx đừng giận "mìn chỉ góp ý thoi")</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Dùng hàng cao cấp của samsung sau vài tháng có cảm giác như dùng hàng rẻ tiền vậy. Đang mất dần niềm tin với sam</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Quảng cáo rầm rộ. Trải nghiệm thực sự thua xa máy tầm trung của xiaomi. Pin thì tụt nhanh. Đèn thông báo thì không có. Vân tay thì tệ ơi là tệ, bấm cả chục cái mới mở được màn hình. Thật sự thất vọng</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Tất cả đều ok, trừ khoản pin kém qá, 1 ngày toàn sạc 2l, mặc dù để độ phân giải là FHD mong đc cập nhật cải thiện pin</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sp quá tuyệt. Mà xin vui long bên dịch vụ của cửa hàng hãy để thêm thông tin về dịch vụ trả góp qa thẻ tín dụg, để k.h có thể dễ dàng tham khảo các gói dịvh vụ tiện ích bên cửa hàng. (Đây là ý kiến riêng của mình)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>màn hình cảm ứng vân tay,khi có nưỡc thì tác dụng không nhạy.s10 sam sung độc quyền miếng dán mặt trước .thay miếng dán khác là mất mở khoá vân tay.mua của sam sung thì giá gấp 20 lần bểnngoài.</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/Data_Predict.xlsx
+++ b/Data/Data_Predict.xlsx
@@ -1,91 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/DA2019/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455EDA48-8F9E-1441-B843-36EF361CD6A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>E mới mua con s10 được gần 2 tuần mà sao xài nhanh nóng quá ạ Hay do cài đặt e chỉnh sai gì ạ</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
-  </si>
-  <si>
-    <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
-  </si>
-  <si>
-    <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
-  </si>
-  <si>
-    <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
-  </si>
-  <si>
-    <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Máy đẹp, nhanh , ngon, chỉ tiếc là Pin tụt hơi nhanh. Còn lại mọi cái đều tuyệt vời.</t>
-  </si>
-  <si>
-    <t>Đã mua và sử dụng từ đời s8.rất đẹp và ok.màu xanh khá đẹp.s10 nhỏ vừa tay hơn s10+.mình đã chọn s10.</t>
-  </si>
-  <si>
-    <t>Dùng màn hình đẹp, pin hơi yếu so với dòng A, wifile bắt khoảng cách xa yếu hơn dòng lumia</t>
-  </si>
-  <si>
-    <t>Nhận máy s10 từ hôm qua tại cửa hàng ở số 3 Quang Trung, Nha Trang. Điện thoại dùng quá ngon, màu xanh của máy đẹp, màn hình sáng, pin khá ổn, chụp hình ấn tượng. Chỉ có cái cảm ứng siêu âm khi ko có dán màn hình thì quá ngon, hy vọng sớm ra dán màn hình tích hợp. Nhân viên TGDĐ nhiệt tình, cảm ơn đã giao máy đúng hẹn.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,47 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -428,140 +353,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>E mới mua con s10 được gần 2 tuần mà sao xài nhanh nóng quá ạ Hay do cài đặt e chỉnh sai gì ạ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Máy hết pin nhanh quá, có cách nào khắc phục không, mọi thứ đều ổn chỉ có pin là tệ, 4sao</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dùng chưa đầy một tháng nhưng quá nhiều thất vọng thỉnh thoảng đọc báo treo không vuốt được, cảm ứng có cuộc gọi ko vuốt nghe được kém hơn cả huawei nếu ai có ý định rước em này nên suy nghĩ pin xuống nhanh nữa thất vọng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Màn hình cứ tự bật sáng khi bỏ túi,y như máy đểu ngày xưa, pin yếu,vân tay lì.. Quá thất vọng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Máy đẹp, mượt, tất cả đều hài lòng nhưng điểm yếu pin tụt quá nhanh dù tắt hết ứng dụng ngầm nên cho 4 sao</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Máy đẹp, dùng mượt, pin hơi yếu tí. Dán màn nên vân tay hơi chậm. Nói chung đến thời điểm hiện tại khá hài lòng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Máy đẹp, nhanh , ngon, chỉ tiếc là Pin tụt hơi nhanh. Còn lại mọi cái đều tuyệt vời.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Đã mua và sử dụng từ đời s8.rất đẹp và ok.màu xanh khá đẹp.s10 nhỏ vừa tay hơn s10+.mình đã chọn s10.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dùng màn hình đẹp, pin hơi yếu so với dòng A, wifile bắt khoảng cách xa yếu hơn dòng lumia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nhận máy s10 từ hôm qua tại cửa hàng ở số 3 Quang Trung, Nha Trang. Điện thoại dùng quá ngon, màu xanh của máy đẹp, màn hình sáng, pin khá ổn, chụp hình ấn tượng. Chỉ có cái cảm ứng siêu âm khi ko có dán màn hình thì quá ngon, hy vọng sớm ra dán màn hình tích hợp. Nhân viên TGDĐ nhiệt tình, cảm ơn đã giao máy đúng hẹn.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>